--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Vĩnh Phúc/3S-Vĩnh Phúc.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Vĩnh Phúc/3S-Vĩnh Phúc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập hàng" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -90,12 +90,6 @@
     <t>1CX45</t>
   </si>
   <si>
-    <t>Số hàng đã chuyển cho đại lý</t>
-  </si>
-  <si>
-    <t>Công ty cần chuyển cho đại lý số hàng</t>
-  </si>
-  <si>
     <t>Tình trạng thanh toán</t>
   </si>
   <si>
@@ -195,15 +189,9 @@
     <t>Hàng sữa khác</t>
   </si>
   <si>
-    <t>Số Hàng Nanomilk nhập (300.000.000-30.240.000)+(300.000.000-30.240.000)*38%</t>
-  </si>
-  <si>
     <t>BẢNG TỔNG HỢP 3S TRẢ HÀNG</t>
   </si>
   <si>
-    <t>Số hàng đại lý đã trả</t>
-  </si>
-  <si>
     <t>Vĩnh Phúc</t>
   </si>
   <si>
@@ -217,6 +205,9 @@
   </si>
   <si>
     <t>Đại lý kí HĐ 300 triệu( bao gồm cả hàng sữa ngoài)</t>
+  </si>
+  <si>
+    <t>ĐÃ trả đủ hàng theo hợp đồng cho đại lý theo biên bản ký ngày 25/10/2020 có kí xác nhận 2 bên đơn 843 và 847</t>
   </si>
 </sst>
 </file>
@@ -224,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -504,9 +495,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -518,7 +509,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -533,7 +524,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,34 +532,34 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -598,13 +589,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,8 +606,62 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,75 +678,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,15 +699,29 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1008,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,72 +1053,72 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="56"/>
+      <c r="D5" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+    </row>
+    <row r="6" spans="1:20" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-    </row>
-    <row r="6" spans="1:20" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -1133,27 +1128,27 @@
         <v>8</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="58">
         <v>641</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="60">
         <v>44055</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="77" t="s">
-        <v>60</v>
+      <c r="E7" s="71" t="s">
+        <v>56</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>21</v>
@@ -1176,11 +1171,11 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="75"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1191,34 +1186,34 @@
         <v>455000</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" ref="I8:I33" si="0">G8*H8</f>
+        <f t="shared" ref="I8:I36" si="0">G8*H8</f>
         <v>16380000</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="75"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="18" t="s">
         <v>10</v>
       </c>
@@ -1236,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="21">
         <v>12</v>
@@ -1253,11 +1248,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="75"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="18" t="s">
         <v>11</v>
       </c>
@@ -1275,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="23">
         <v>12</v>
@@ -1290,14 +1285,14 @@
         <f t="shared" ref="O10:O23" si="1">M10*N10</f>
         <v>2160000</v>
       </c>
-      <c r="T10" s="54"/>
+      <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="75"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1315,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="23">
         <v>12</v>
@@ -1332,11 +1327,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="75"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
@@ -1354,10 +1349,10 @@
         <v>4</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="23">
         <v>12</v>
@@ -1369,14 +1364,14 @@
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
-      <c r="T12" s="54"/>
+      <c r="T12" s="53"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="75"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1394,10 +1389,10 @@
         <v>5</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="23">
         <v>12</v>
@@ -1411,11 +1406,11 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="75"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1433,10 +1428,10 @@
         <v>6</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="23">
         <v>12</v>
@@ -1450,11 +1445,11 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="75"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1472,10 +1467,10 @@
         <v>7</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="23">
         <v>12</v>
@@ -1489,20 +1484,20 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="59">
         <v>645</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="61">
         <v>44056</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="75" t="s">
-        <v>60</v>
+      <c r="E16" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>16</v>
@@ -1521,10 +1516,10 @@
         <v>8</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="23">
         <v>12</v>
@@ -1538,11 +1533,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="75"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="18" t="s">
         <v>10</v>
       </c>
@@ -1560,10 +1555,10 @@
         <v>9</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17" s="23">
         <v>12</v>
@@ -1577,11 +1572,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="75"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="18" t="s">
         <v>11</v>
       </c>
@@ -1599,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="23">
         <v>12</v>
@@ -1616,11 +1611,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="75"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="18" t="s">
         <v>9</v>
       </c>
@@ -1642,11 +1637,11 @@
       <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="75"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="18" t="s">
         <v>14</v>
       </c>
@@ -1664,10 +1659,10 @@
         <v>11</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M20" s="23">
         <v>12</v>
@@ -1681,11 +1676,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="75"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1703,10 +1698,10 @@
         <v>12</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M21" s="23">
         <v>12</v>
@@ -1720,32 +1715,23 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="18">
-        <v>12</v>
-      </c>
-      <c r="H22" s="19">
-        <v>455000</v>
-      </c>
-      <c r="I22" s="19">
-        <f t="shared" si="0"/>
-        <v>5460000</v>
-      </c>
+      <c r="A22" s="59"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="18">
         <v>13</v>
       </c>
       <c r="K22" s="42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M22" s="23">
         <v>12</v>
@@ -1759,11 +1745,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="25" t="s">
         <v>12</v>
       </c>
@@ -1781,10 +1767,10 @@
         <v>14</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L23" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="28">
         <v>12</v>
@@ -1798,20 +1784,20 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
+      <c r="A24" s="58">
         <v>650</v>
       </c>
-      <c r="B24" s="78">
+      <c r="B24" s="60">
         <v>44057</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="77" t="s">
-        <v>60</v>
+      <c r="E24" s="71" t="s">
+        <v>56</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>16</v>
@@ -1828,7 +1814,7 @@
       </c>
       <c r="J24" s="30"/>
       <c r="K24" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="32">
@@ -1842,11 +1828,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="75"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="18" t="s">
         <v>10</v>
       </c>
@@ -1862,11 +1848,11 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="75"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="18" t="s">
         <v>11</v>
       </c>
@@ -1882,11 +1868,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="75"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="18" t="s">
         <v>9</v>
       </c>
@@ -1902,11 +1888,11 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="75"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="18" t="s">
         <v>13</v>
       </c>
@@ -1922,11 +1908,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="76"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="25" t="s">
         <v>12</v>
       </c>
@@ -1942,20 +1928,20 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
+      <c r="A30" s="77">
         <v>780</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="80">
         <v>44065</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="66" t="s">
-        <v>60</v>
+      <c r="E30" s="82" t="s">
+        <v>56</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>16</v>
@@ -1972,11 +1958,11 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="67"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="18" t="s">
         <v>10</v>
       </c>
@@ -1992,11 +1978,11 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="67"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="18" t="s">
         <v>11</v>
       </c>
@@ -2011,51 +1997,129 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="18" t="s">
+    <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="27">
         <v>36</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="92">
         <v>485000</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="92">
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37">
+      <c r="K33" s="97">
         <f>SUM(I7:I33)</f>
-        <v>375000000</v>
+        <v>369540000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="71">
+        <v>843</v>
+      </c>
+      <c r="B34" s="93">
+        <v>44129</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="15">
+        <v>12</v>
+      </c>
+      <c r="H34" s="15">
+        <v>225000</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="25">
+        <v>84</v>
+      </c>
+      <c r="H35" s="25">
+        <v>455000</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="0"/>
+        <v>38220000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>847</v>
+      </c>
+      <c r="B36" s="53">
+        <v>44128</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="3">
+        <v>7</v>
+      </c>
+      <c r="H36" s="3">
+        <v>455000</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>3185000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37">
+        <f>SUM(I7:I36)</f>
+        <v>413645000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+  <mergeCells count="33">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
     <mergeCell ref="K5:O6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A24:A29"/>
@@ -2072,11 +2136,13 @@
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2093,12 +2159,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="55"/>
-    <col min="2" max="2" width="10.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="55"/>
-    <col min="8" max="8" width="10.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="9.140625" style="54"/>
+    <col min="2" max="2" width="10.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="54"/>
+    <col min="8" max="8" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2128,64 +2194,64 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="A3" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="56"/>
+      <c r="D5" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="86"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -2196,18 +2262,18 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="78">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60">
         <v>44113</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>60</v>
+      <c r="E7" s="58" t="s">
+        <v>56</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>21</v>
@@ -2224,11 +2290,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
@@ -2257,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>16</v>
@@ -2275,7 +2341,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -2302,6 +2368,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
@@ -2309,11 +2380,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2321,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:D20"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,139 +2398,96 @@
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="49">
-        <f>'Nhập hàng'!O24</f>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="52">
+        <v>269760000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="52">
+        <f>300000000-D10</f>
         <v>30240000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="49">
-        <f>300000000-B7+(300000000-B7)*38%</f>
-        <v>372268800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="49">
-        <f>'Nhập hàng'!I34</f>
-        <v>375000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="49">
-        <f>'Trả hàng'!I10</f>
-        <v>40920000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="59">
-        <f>B8-B9+B10</f>
-        <v>38188800</v>
+      <c r="B12" s="39">
+        <v>44055</v>
+      </c>
+      <c r="C12" s="49">
+        <v>100000000</v>
+      </c>
+      <c r="D12" s="89">
+        <f>SUM(C12:C14)</f>
+        <v>185000000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="39">
+        <v>44064</v>
+      </c>
+      <c r="C13" s="49">
+        <v>80000000</v>
+      </c>
+      <c r="D13" s="90"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="39">
+        <v>44102</v>
+      </c>
+      <c r="C14" s="49">
+        <v>5000000</v>
+      </c>
+      <c r="D14" s="91"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="53">
-        <f>300000000-D16</f>
-        <v>269760000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="53">
-        <f>B7</f>
-        <v>30240000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="39">
-        <v>44055</v>
-      </c>
-      <c r="C17" s="49">
-        <v>100000000</v>
-      </c>
-      <c r="D17" s="93">
-        <f>SUM(C17:C19)</f>
-        <v>185000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="39">
-        <v>44064</v>
-      </c>
-      <c r="C18" s="49">
-        <v>80000000</v>
-      </c>
-      <c r="D18" s="94"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="39">
-        <v>44102</v>
-      </c>
-      <c r="C19" s="49">
-        <v>5000000</v>
-      </c>
-      <c r="D19" s="95"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="50">
-        <f>D15+D16-D17</f>
+      <c r="B15" s="85"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="50">
+        <f>D10+D11-D12</f>
         <v>115000000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2474,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2482,32 +2505,32 @@
   <sheetData>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Vĩnh Phúc/3S-Vĩnh Phúc.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Vĩnh Phúc/3S-Vĩnh Phúc.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>ĐÃ trả đủ hàng theo hợp đồng cho đại lý theo biên bản ký ngày 25/10/2020 có kí xác nhận 2 bên đơn 843 và 847</t>
+  </si>
+  <si>
+    <t>15/11 thanh toán 50tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/2 thanh toán 50tr </t>
+  </si>
+  <si>
+    <t>Thỏa thuận ngày 25/10 (có ảnh ) hẹn</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -606,16 +615,84 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,60 +707,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,20 +731,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1005,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,62 +1063,62 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:20" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="55"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="1:20" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="47" t="s">
         <v>50</v>
       </c>
@@ -1128,26 +1138,26 @@
         <v>8</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="74">
         <v>641</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="80">
         <v>44055</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="60" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -1171,11 +1181,11 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1209,11 +1219,11 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="69"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="18" t="s">
         <v>10</v>
       </c>
@@ -1248,11 +1258,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="69"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="18" t="s">
         <v>11</v>
       </c>
@@ -1288,11 +1298,11 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="69"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1327,11 +1337,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="69"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
@@ -1367,11 +1377,11 @@
       <c r="T12" s="53"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="69"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1406,11 +1416,11 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="69"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1445,11 +1455,11 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="69"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1484,19 +1494,19 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+      <c r="A16" s="75">
         <v>645</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="77">
         <v>44056</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="79" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="18" t="s">
@@ -1533,11 +1543,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="69"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="18" t="s">
         <v>10</v>
       </c>
@@ -1572,11 +1582,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="69"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="18" t="s">
         <v>11</v>
       </c>
@@ -1611,11 +1621,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="69"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="18" t="s">
         <v>9</v>
       </c>
@@ -1637,11 +1647,11 @@
       <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="69"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="18" t="s">
         <v>14</v>
       </c>
@@ -1676,11 +1686,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="69"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="18" t="s">
         <v>15</v>
       </c>
@@ -1715,11 +1725,11 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="69"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
@@ -1745,11 +1755,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="70"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="25" t="s">
         <v>12</v>
       </c>
@@ -1784,19 +1794,19 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
+      <c r="A24" s="74">
         <v>650</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="80">
         <v>44057</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="60" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="15" t="s">
@@ -1828,11 +1838,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="69"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="18" t="s">
         <v>10</v>
       </c>
@@ -1848,11 +1858,11 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="69"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="18" t="s">
         <v>11</v>
       </c>
@@ -1868,11 +1878,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="69"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="18" t="s">
         <v>9</v>
       </c>
@@ -1888,11 +1898,11 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="69"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="18" t="s">
         <v>13</v>
       </c>
@@ -1908,11 +1918,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="70"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="25" t="s">
         <v>12</v>
       </c>
@@ -1928,19 +1938,19 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
+      <c r="A30" s="64">
         <v>780</v>
       </c>
-      <c r="B30" s="80">
+      <c r="B30" s="69">
         <v>44065</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="71" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="15" t="s">
@@ -1958,11 +1968,11 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="83"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="18" t="s">
         <v>10</v>
       </c>
@@ -1978,11 +1988,11 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="83"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="18" t="s">
         <v>11</v>
       </c>
@@ -1998,43 +2008,43 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="83"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="27">
         <v>36</v>
       </c>
-      <c r="H33" s="92">
+      <c r="H33" s="58">
         <v>485000</v>
       </c>
-      <c r="I33" s="92">
+      <c r="I33" s="58">
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-      <c r="K33" s="97">
+      <c r="K33" s="59">
         <f>SUM(I7:I33)</f>
         <v>369540000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="71">
+      <c r="A34" s="60">
         <v>843</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="62">
         <v>44129</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="E34" s="66" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="15" t="s">
@@ -2052,11 +2062,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="25" t="s">
         <v>16</v>
       </c>
@@ -2075,7 +2085,7 @@
       <c r="A36" s="3">
         <v>847</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="38">
         <v>44128</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2110,16 +2120,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="K5:O6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A24:A29"/>
@@ -2136,13 +2143,16 @@
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2154,7 +2164,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,54 +2204,54 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="47" t="s">
         <v>50</v>
       </c>
@@ -2262,17 +2272,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="60">
+      <c r="A7" s="74"/>
+      <c r="B7" s="80">
         <v>44113</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="74" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -2290,11 +2300,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="18" t="s">
         <v>16</v>
       </c>
@@ -2368,11 +2378,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
@@ -2380,6 +2385,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2390,7 +2400,7 @@
   <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,6 +2409,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,6 +2420,12 @@
         <v>61</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="98">
+        <f>269760000+269760000*38%</f>
+        <v>372268800</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
@@ -2438,7 +2455,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="92" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="39">
@@ -2447,36 +2464,36 @@
       <c r="C12" s="49">
         <v>100000000</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="95">
         <f>SUM(C12:C14)</f>
         <v>185000000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="39">
         <v>44064</v>
       </c>
       <c r="C13" s="49">
         <v>80000000</v>
       </c>
-      <c r="D13" s="90"/>
+      <c r="D13" s="96"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="39">
         <v>44102</v>
       </c>
       <c r="C14" s="49">
         <v>5000000</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="97"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="51"/>
       <c r="D15" s="50">
         <f>D10+D11-D12</f>
@@ -2495,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:D12"/>
+  <dimension ref="D7:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,6 +2550,21 @@
         <v>59</v>
       </c>
     </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
